--- a/output/StructureDefinition-cbs-ethnicity.xlsx
+++ b/output/StructureDefinition-cbs-ethnicity.xlsx
@@ -252,7 +252,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://phinvads.cdc.gov/fhir/ViewValueSet.action?oid=2.16.840.1.114222.4.11.3015</t>
+    <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.3015</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -457,7 +457,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.6328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.4453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cbs-ethnicity.xlsx
+++ b/output/StructureDefinition-cbs-ethnicity.xlsx
@@ -252,7 +252,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.3015</t>
+    <t>https://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.3015</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -457,7 +457,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.4453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.37890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cbs-ethnicity.xlsx
+++ b/output/StructureDefinition-cbs-ethnicity.xlsx
@@ -252,7 +252,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.3015</t>
+    <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.3015</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -457,7 +457,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.37890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.4453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
